--- a/src/main.xlsx
+++ b/src/main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilnederveen/Desktop/Ponts et Chaussées/3A/MPRO/RORT/RORTFAYE_BARRAULT_NEDERVEEN/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAF8217-11CF-6F45-BB52-169FD1000D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100E5947-98F0-3C4F-B881-9751BDCDDDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25960" windowHeight="12400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="329">
   <si>
     <t>Résultats</t>
   </si>
@@ -157,9 +157,6 @@
     <t>grille_10x5</t>
   </si>
   <si>
-    <t>réalisé sur version plat</t>
-  </si>
-  <si>
     <t>grille_10x4</t>
   </si>
   <si>
@@ -959,6 +956,72 @@
   </si>
   <si>
     <t>arc (96, 104) taxé à 2</t>
+  </si>
+  <si>
+    <t>PLNE</t>
+  </si>
+  <si>
+    <t>arc (5, 15) taxé à 2.999999999997719</t>
+  </si>
+  <si>
+    <t>arc (6, 15) taxé à 5.999999999997613</t>
+  </si>
+  <si>
+    <t>arc (7, 17) taxé à 13.0</t>
+  </si>
+  <si>
+    <t>arc (21, 22) taxé à 3.0</t>
+  </si>
+  <si>
+    <t>arc (13, 23) taxé à 7.000000000007444</t>
+  </si>
+  <si>
+    <t>arc (15, 25) taxé à 11.000000000001137</t>
+  </si>
+  <si>
+    <t>arc (18, 28) taxé à 1.0</t>
+  </si>
+  <si>
+    <t>arc (28, 37) taxé à 9.0</t>
+  </si>
+  <si>
+    <t>arc (34, 44) taxé à 3.0000000000004547</t>
+  </si>
+  <si>
+    <t>arc (35, 45) taxé à 1.0</t>
+  </si>
+  <si>
+    <t>arc (44, 45) taxé à 11.0</t>
+  </si>
+  <si>
+    <t>arc (45, 53) taxé à 1.0000000000004554</t>
+  </si>
+  <si>
+    <t>arc (52, 60) taxé à 7.0000000000012506</t>
+  </si>
+  <si>
+    <t>arc (61, 69) taxé à 11.0</t>
+  </si>
+  <si>
+    <t>arc (70, 69) taxé à 7.0</t>
+  </si>
+  <si>
+    <t>arc (81, 90) taxé à 0.9999999999995453</t>
+  </si>
+  <si>
+    <t>arc (82, 90) taxé à 0.9999999999995453</t>
+  </si>
+  <si>
+    <t>arc (94, 102) taxé à 5.0</t>
+  </si>
+  <si>
+    <t>arc (96, 104) taxé à 4.0000000000000036</t>
+  </si>
+  <si>
+    <t>arc (104, 112) taxé à 6.0000000000012506</t>
+  </si>
+  <si>
+    <t>arc (104, 114) taxé à 7.0</t>
   </si>
 </sst>
 </file>
@@ -994,9 +1057,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2002,31 +2068,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAA70A1-BEB2-714B-92CE-2F5226DE659E}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2034,364 +2095,364 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="C5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="C6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>18</v>
       </c>
-      <c r="E7">
+      <c r="C7">
         <v>0.16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>38</v>
       </c>
-      <c r="E8">
+      <c r="C8">
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>34</v>
       </c>
-      <c r="E9">
+      <c r="C9">
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>37</v>
       </c>
-      <c r="E10">
+      <c r="C10">
         <v>0.97</v>
       </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>39</v>
       </c>
-      <c r="E11">
+      <c r="C11">
         <v>1.29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>39</v>
       </c>
-      <c r="E12">
+      <c r="C12">
         <v>1.18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
         <v>86</v>
       </c>
-      <c r="E13">
+      <c r="C13">
         <v>3.31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
         <v>42</v>
       </c>
-      <c r="E14">
+      <c r="C14">
         <v>0.92</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
         <v>58</v>
       </c>
-      <c r="E15">
+      <c r="C15">
         <v>1.98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16">
         <v>77</v>
       </c>
-      <c r="E16">
+      <c r="C16">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17">
         <v>105</v>
       </c>
-      <c r="E17">
+      <c r="C17">
         <v>2.23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>30</v>
       </c>
-      <c r="E18">
+      <c r="C18">
         <v>4.62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>35</v>
       </c>
-      <c r="E19">
+      <c r="C19">
         <v>0.93</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <v>79</v>
       </c>
-      <c r="E20">
+      <c r="C20">
         <v>87.53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
         <v>99</v>
       </c>
-      <c r="E21">
+      <c r="C21">
         <v>37.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22">
         <v>64</v>
       </c>
-      <c r="E22">
+      <c r="C22">
         <v>4.63</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23">
         <v>50</v>
       </c>
-      <c r="E23">
+      <c r="C23">
         <v>12.42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24">
         <v>67</v>
       </c>
-      <c r="E24">
+      <c r="C24">
         <v>3.88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25">
         <v>79</v>
       </c>
-      <c r="E25">
+      <c r="C25">
         <v>7.41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
         <v>140</v>
       </c>
-      <c r="E26">
+      <c r="C26">
         <v>9.76</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>176</v>
+      </c>
+      <c r="C27">
+        <v>381.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29">
         <v>97</v>
       </c>
-      <c r="E29">
+      <c r="C29">
         <v>40.96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30">
         <v>109</v>
       </c>
-      <c r="E30">
+      <c r="C30">
         <v>43.84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31">
         <v>69</v>
       </c>
-      <c r="E31">
+      <c r="C31">
         <v>1.54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32">
         <v>115</v>
       </c>
-      <c r="E32">
+      <c r="C32">
         <v>8.01</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33">
         <v>90</v>
       </c>
-      <c r="E33">
+      <c r="C33">
         <v>4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="B34">
         <v>136</v>
       </c>
-      <c r="E34">
+      <c r="C34">
         <v>1.52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>469</v>
       </c>
-      <c r="E35">
+      <c r="C35">
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>561</v>
       </c>
-      <c r="E36">
+      <c r="C36">
         <v>0.13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE3FDAB-0ABC-FA46-84C3-66BC5AB08892}">
-  <dimension ref="B1:BJ21"/>
+  <dimension ref="B1:BJ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AU4" sqref="AU4"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2485,976 +2546,1105 @@
         <v>39</v>
       </c>
       <c r="BH1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>41</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="V3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AB3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AD3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AH3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AJ3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AN3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AP3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AR3" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU3">
+        <v>3</v>
       </c>
       <c r="AV3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AW3">
         <v>1</v>
       </c>
       <c r="AX3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AZ3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BB3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BD3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BF3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BG3">
         <v>0</v>
       </c>
       <c r="BH3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BJ3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" t="s">
         <v>157</v>
       </c>
-      <c r="J4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" t="s">
-        <v>190</v>
-      </c>
-      <c r="P4" t="s">
-        <v>161</v>
-      </c>
-      <c r="R4" t="s">
-        <v>167</v>
-      </c>
-      <c r="T4" t="s">
-        <v>158</v>
-      </c>
       <c r="V4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AD4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AP4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AR4" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AU4">
+        <v>6</v>
       </c>
       <c r="AV4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AW4">
         <v>4</v>
       </c>
       <c r="AX4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AZ4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BB4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BD4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
       <c r="BH4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BJ4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:62" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="V5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AH5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL5" t="s">
         <v>255</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>256</v>
-      </c>
       <c r="AN5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AP5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AR5" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU5">
+        <v>13</v>
       </c>
       <c r="AV5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW5">
         <v>6</v>
       </c>
       <c r="AX5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AZ5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BB5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BD5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BF5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>64</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:62" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AN6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AR6" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU6">
+        <v>3</v>
       </c>
       <c r="AV6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AW6">
         <v>2</v>
       </c>
       <c r="AX6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AZ6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BB6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BD6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BJ6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:62" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AH7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AJ7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AN7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AP7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AR7" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AU7">
+        <v>7</v>
       </c>
       <c r="AV7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AZ7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BD7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BF7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BG7">
         <v>0</v>
       </c>
       <c r="BH7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BJ7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:62" x14ac:dyDescent="0.2">
       <c r="N8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AJ8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AN8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AP8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AR8" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU8">
+        <v>11</v>
       </c>
       <c r="AV8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AW8">
         <v>3</v>
       </c>
       <c r="AX8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BB8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BD8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BF8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BG8">
         <v>0</v>
       </c>
       <c r="BH8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BJ8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:62" x14ac:dyDescent="0.2">
       <c r="N9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AL9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AP9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AR9" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
       </c>
       <c r="AV9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW9">
         <v>5</v>
       </c>
       <c r="AX9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BB9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BG9">
         <v>0</v>
       </c>
       <c r="BH9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BJ9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:62" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AH10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AP10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AR10" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU10">
+        <v>9</v>
       </c>
       <c r="AV10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AW10">
         <v>5</v>
       </c>
       <c r="AX10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AZ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BD10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BF10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BG10">
         <v>0</v>
       </c>
       <c r="BH10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BJ10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:62" x14ac:dyDescent="0.2">
       <c r="R11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AH11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AP11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AR11" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU11">
+        <v>3</v>
       </c>
       <c r="AV11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AW11">
         <v>1</v>
       </c>
       <c r="AX11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AZ11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BD11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BF11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BG11">
         <v>0</v>
       </c>
       <c r="BH11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BJ11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="2:62" x14ac:dyDescent="0.2">
       <c r="R12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AR12" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
       </c>
       <c r="AV12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AW12">
         <v>2</v>
       </c>
       <c r="AX12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AZ12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BB12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BD12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BG12">
         <v>0</v>
       </c>
       <c r="BH12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BJ12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:62" x14ac:dyDescent="0.2">
       <c r="R13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AR13" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU13">
+        <v>11</v>
       </c>
       <c r="AV13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AW13">
         <v>3</v>
       </c>
       <c r="AX13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AZ13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BB13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BD13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:62" x14ac:dyDescent="0.2">
       <c r="R14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Z14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AR14" t="s">
-        <v>303</v>
+        <v>302</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
       </c>
       <c r="AV14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AW14">
         <v>10</v>
       </c>
       <c r="AX14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BB14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BD14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BH14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:62" x14ac:dyDescent="0.2">
       <c r="R15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR15" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>320</v>
+      </c>
+      <c r="AU15">
+        <v>7</v>
       </c>
       <c r="AV15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW15">
         <v>3</v>
       </c>
       <c r="AX15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AZ15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BB15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:62" x14ac:dyDescent="0.2">
       <c r="V16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AR16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AU16" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>11</v>
+      </c>
       <c r="AV16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AW16">
         <v>1</v>
       </c>
       <c r="AX16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AZ16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BB16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="26:54" x14ac:dyDescent="0.2">
       <c r="Z17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AR17" t="s">
-        <v>306</v>
+        <v>305</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU17">
+        <v>7</v>
       </c>
       <c r="AV17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW17">
         <v>12</v>
       </c>
       <c r="AX17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AZ17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BB17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="26:54" x14ac:dyDescent="0.2">
       <c r="AR18" t="s">
-        <v>307</v>
+        <v>306</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
       </c>
       <c r="AX18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AZ18" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="26:54" x14ac:dyDescent="0.2">
+      <c r="AT19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>135</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BB19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="26:54" x14ac:dyDescent="0.2">
-      <c r="AX19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB19" t="s">
+    <row r="20" spans="26:54" x14ac:dyDescent="0.2">
+      <c r="AT20" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU20">
+        <v>5</v>
+      </c>
+      <c r="BB20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="26:54" x14ac:dyDescent="0.2">
-      <c r="BB20" t="s">
+    <row r="21" spans="26:54" x14ac:dyDescent="0.2">
+      <c r="AT21" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="BB21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="26:54" x14ac:dyDescent="0.2">
-      <c r="BB21" t="s">
-        <v>121</v>
+    <row r="22" spans="26:54" x14ac:dyDescent="0.2">
+      <c r="AT22" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="26:54" x14ac:dyDescent="0.2">
+      <c r="AT23" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU23">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
